--- a/test_cases/PE-54/TC-15-Recuperacion de contraseña.xlsx
+++ b/test_cases/PE-54/TC-15-Recuperacion de contraseña.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\PE-54\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD297A-A558-45DD-9765-759FFDC544CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A44E1D4-6D4C-49A4-9E2B-AC02CF8C167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>Mail invalid. Please try again.</t>
   </si>
   <si>
-    <t>iIngresar Mail2</t>
-  </si>
-  <si>
     <t>Se envia la nueva contraseña al mail</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Access to Chrome Browser</t>
+  </si>
+  <si>
+    <t>Ingresar Mail2</t>
   </si>
 </sst>
 </file>
@@ -604,55 +604,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -664,6 +622,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -678,6 +637,47 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B647B-A62E-4E07-8E2B-D01E81153806}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1006,15 +1006,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="28">
         <v>1</v>
@@ -1089,13 +1089,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="30">
         <v>2</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1113,31 +1113,31 @@
       <c r="B11" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" ht="21">
       <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="18" t="s">
         <v>16</v>
       </c>
@@ -1149,90 +1149,102 @@
       <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="62" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="21">
         <v>1</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="52"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="21">
         <v>2</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="23">
         <v>3</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="47"/>
+      <c r="B20" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5" ht="25" customHeight="1">
       <c r="A21" s="24">
         <v>4</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="49"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" ht="26" customHeight="1">
       <c r="A22" s="26"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="26"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="27"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D1:E1"/>
@@ -1241,18 +1253,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
